--- a/data/data_split_2.xlsx
+++ b/data/data_split_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\15.6\4\khdl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD5510F-B131-4DB6-8C43-525B1261C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E5299-1724-464B-9E9D-F0E1348218CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
